--- a/aicsairtable/data/LaserPower_experimental_headers.xlsx
+++ b/aicsairtable/data/LaserPower_experimental_headers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\aics\microscopy\brian_whitney\repos\aicsairtable\aicsairtable\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\aics\microscopy\brian_whitney\repos\aicsairtable\aicsairtable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF14935-CE10-45AA-843B-C0B9B5F6F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B8826-8B16-468D-A819-30017F53A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21750" yWindow="1830" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>Wavelength</t>
   </si>
   <si>
-    <t>Power Instruction</t>
+    <t>Threshold</t>
   </si>
   <si>
-    <t>Threshold</t>
+    <t>Power_instruction (%)</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="M300" sqref="M300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/aicsairtable/data/LaserPower_experimental_headers.xlsx
+++ b/aicsairtable/data/LaserPower_experimental_headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\aics\microscopy\brian_whitney\repos\aicsairtable\aicsairtable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B8826-8B16-468D-A819-30017F53A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A32D34-CC85-4DEF-ADF9-0A4D160E1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21750" yWindow="1830" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23265" yWindow="2595" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>Slide ID</t>
   </si>
   <si>
-    <t>Wavelength</t>
+    <t>Power Instruction (%)</t>
   </si>
   <si>
-    <t>Threshold</t>
+    <t>Wavelength (nm)</t>
   </si>
   <si>
-    <t>Power_instruction (%)</t>
+    <t>Experimental (uW)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
